--- a/4568 JP Daiichi Sankyo.xlsx
+++ b/4568 JP Daiichi Sankyo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C22FD03-66EF-4611-8DEA-9C6989A48511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C7267-2570-4045-A39D-9207458B78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
+    <workbookView xWindow="1500" yWindow="2355" windowWidth="27720" windowHeight="16485" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Price JPY</t>
   </si>
@@ -91,19 +91,188 @@
   </si>
   <si>
     <t>COGS</t>
+  </si>
+  <si>
+    <t>Yen (B)</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Edoxaban</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Lixiana</t>
+  </si>
+  <si>
+    <t>Tarlige</t>
+  </si>
+  <si>
+    <t>Pralia</t>
+  </si>
+  <si>
+    <t>Efient</t>
+  </si>
+  <si>
+    <t>Tenelia</t>
+  </si>
+  <si>
+    <t>Vimpat</t>
+  </si>
+  <si>
+    <t>Ranmark</t>
+  </si>
+  <si>
+    <t>Canalia</t>
+  </si>
+  <si>
+    <t>Loxonin</t>
+  </si>
+  <si>
+    <t>Enhertu</t>
+  </si>
+  <si>
+    <t>Emgality</t>
+  </si>
+  <si>
+    <t>Espha</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>Enhertu US</t>
+  </si>
+  <si>
+    <t>Enhertu EU</t>
+  </si>
+  <si>
+    <t>Turalio</t>
+  </si>
+  <si>
+    <t>Injectafer</t>
+  </si>
+  <si>
+    <t>Venofer</t>
+  </si>
+  <si>
+    <t>EU Lixiana</t>
+  </si>
+  <si>
+    <t>EU Nilemdo/Nustendi</t>
+  </si>
+  <si>
+    <t>EU Olmesartan</t>
+  </si>
+  <si>
+    <t>ASCA</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>Tarlige (mirogabalin)</t>
+  </si>
+  <si>
+    <t>Pralia (denosumab)</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>Efient (prasugrel)</t>
+  </si>
+  <si>
+    <t>Tenelia (teneligliptin)</t>
+  </si>
+  <si>
+    <t>T2D</t>
+  </si>
+  <si>
+    <t>Osteoporosis</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Enhertu JP</t>
+  </si>
+  <si>
+    <t>Savaysa/Lixiana (edoxaban)</t>
+  </si>
+  <si>
+    <t>Savaysa</t>
+  </si>
+  <si>
+    <t>Lixiana EU</t>
+  </si>
+  <si>
+    <t>Lixiana JP</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Enhertu Other</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -211,10 +380,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -226,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -241,10 +411,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -258,6 +433,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3014F26-274D-D0C5-D7E1-49E5073301CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="43962"/>
+          <a:ext cx="0" cy="10052538"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,13 +790,14 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
@@ -598,7 +829,9 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -615,8 +848,12 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -630,22 +867,33 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="L5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <f>658.064+136.178+149.131</f>
+        <v>943.37299999999993</v>
+      </c>
       <c r="N5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -654,14 +902,21 @@
       <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <f>142.973+20.394</f>
+        <v>163.36700000000002</v>
+      </c>
       <c r="N6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -671,7 +926,7 @@
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>7954.797356</v>
+        <v>7174.7913560000006</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -724,89 +979,938 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF968C-0A99-4EB6-8B10-E503E69B2E33}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="12">
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="13">
         <v>44286</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>44377</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>44469</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>44561</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>44651</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>44742</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="13">
         <v>44834</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="13">
         <v>44926</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="K2" s="13">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15">
+        <v>22.9</v>
+      </c>
+      <c r="E3" s="15">
+        <v>21.9</v>
+      </c>
+      <c r="F3" s="15">
+        <v>25.6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>22</v>
+      </c>
+      <c r="H3" s="15">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15">
+        <v>23.4</v>
+      </c>
+      <c r="E5" s="15">
+        <v>23.7</v>
+      </c>
+      <c r="F5" s="15">
+        <v>27.2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="H5" s="15">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G6" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
+        <v>49.5</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
+        <v>49.699999999999996</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="0"/>
+        <v>49.300000000000004</v>
+      </c>
+      <c r="H7" s="16">
+        <f>SUM(H3:H6)</f>
+        <v>58.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="E10" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="G10" s="14">
+        <v>13.8</v>
+      </c>
+      <c r="H10" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H11" s="14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(D10:D13)</f>
+        <v>13</v>
+      </c>
+      <c r="E14" s="16">
+        <f>SUM(E10:E13)</f>
+        <v>13.7</v>
+      </c>
+      <c r="F14" s="16">
+        <f>SUM(F10:F13)</f>
+        <v>16.8</v>
+      </c>
+      <c r="G14" s="16">
+        <f>SUM(G10:G13)</f>
+        <v>21.9</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(H10:H13)</f>
+        <v>31.299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="H17" s="14">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="H18" s="14">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="H19" s="14">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="H21" s="14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14">
+        <v>26.5</v>
+      </c>
+      <c r="H22" s="14">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="14">
+        <v>22.9</v>
+      </c>
+      <c r="E24" s="14">
+        <v>21.9</v>
+      </c>
+      <c r="F24" s="14">
+        <v>25.6</v>
+      </c>
+      <c r="G24" s="14">
+        <v>22</v>
+      </c>
+      <c r="H24" s="14">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="E25" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G25" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="H25" s="14">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E26" s="14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F26" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="G26" s="14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H26" s="14">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E28" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="F28" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G28" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F29" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G29" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="G30" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="H30" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="E31" s="14">
+        <v>4</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="H31" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="E32" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="F32" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H32" s="14">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="G33" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="14">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="F35" s="14">
+        <v>24.2</v>
+      </c>
+      <c r="G35" s="14">
+        <v>18.8</v>
+      </c>
+      <c r="H35" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E36" s="14">
+        <v>4</v>
+      </c>
+      <c r="F36" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="G36" s="14">
+        <v>-2.9</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="14">
+        <v>129.1</v>
+      </c>
+      <c r="E37" s="14">
+        <v>126.5</v>
+      </c>
+      <c r="F37" s="14">
+        <v>138.1</v>
+      </c>
+      <c r="G37" s="14">
+        <v>95.8</v>
+      </c>
+      <c r="H37" s="14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="E38" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F38" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="G38" s="14">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="H38" s="14">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16">
         <v>264.06900000000002</v>
       </c>
-      <c r="H3" s="13">
+      <c r="E40" s="16">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="F40" s="16">
+        <v>281</v>
+      </c>
+      <c r="G40" s="16">
+        <v>233.9</v>
+      </c>
+      <c r="H40" s="16">
         <v>280.31700000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="I40" s="16">
+        <v>280</v>
+      </c>
+      <c r="J40" s="16">
+        <v>300</v>
+      </c>
+      <c r="K40" s="16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
-        <v>85.152000000000001</v>
-      </c>
-      <c r="H4">
-        <v>74.691999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="D41" s="14">
+        <v>85.227999999999994</v>
+      </c>
+      <c r="E41" s="14">
+        <v>87.4</v>
+      </c>
+      <c r="F41" s="14">
+        <v>90.6</v>
+      </c>
+      <c r="G41" s="14">
+        <v>84.8</v>
+      </c>
+      <c r="H41" s="14">
+        <v>74.798000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13">
-        <f>+D3-D4</f>
-        <v>178.91700000000003</v>
-      </c>
-      <c r="H5" s="13">
-        <f>+H3-H4</f>
-        <v>205.625</v>
+      <c r="D42" s="14">
+        <f t="shared" ref="D42:G42" si="1">+D40-D41</f>
+        <v>178.84100000000001</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="1"/>
+        <v>178.49999999999997</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="1"/>
+        <v>190.4</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="1"/>
+        <v>149.10000000000002</v>
+      </c>
+      <c r="H42" s="14">
+        <f>+H40-H41</f>
+        <v>205.51900000000001</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" ref="I42:J42" si="2">+I40-I41</f>
+        <v>280</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="14">
+        <v>81.257999999999996</v>
+      </c>
+      <c r="E43" s="14">
+        <v>84.5</v>
+      </c>
+      <c r="F43" s="14">
+        <v>90</v>
+      </c>
+      <c r="G43" s="14">
+        <v>96.4</v>
+      </c>
+      <c r="H43" s="14">
+        <v>96.373000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="14">
+        <v>54.037999999999997</v>
+      </c>
+      <c r="E44" s="14">
+        <v>55</v>
+      </c>
+      <c r="F44" s="14">
+        <v>60.1</v>
+      </c>
+      <c r="G44" s="14">
+        <v>85</v>
+      </c>
+      <c r="H44" s="14">
+        <v>74.930999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" ref="D45:G45" si="3">+D43+D44</f>
+        <v>135.29599999999999</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="3"/>
+        <v>139.5</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="3"/>
+        <v>150.1</v>
+      </c>
+      <c r="G45" s="14">
+        <f t="shared" si="3"/>
+        <v>181.4</v>
+      </c>
+      <c r="H45" s="14">
+        <f>+H43+H44</f>
+        <v>171.304</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" ref="D46:G46" si="4">+D42-D45</f>
+        <v>43.545000000000016</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="4"/>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="4"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="4"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H46" s="14">
+        <f>+H42-H45</f>
+        <v>34.215000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="14">
+        <f>2.225+2.055-0.759-0.002</f>
+        <v>3.5190000000000006</v>
+      </c>
+      <c r="H47" s="14">
+        <f>0.168+1.562-6.507-0.021</f>
+        <v>-4.7979999999999992</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="14">
+        <f>+D46+D47</f>
+        <v>47.064000000000014</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" ref="E48:H48" si="5">+E46+E47</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="5"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="5"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="5"/>
+        <v>29.417000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="14">
+        <v>11.842000000000001</v>
+      </c>
+      <c r="H49" s="14">
+        <v>10.563000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="14">
+        <f>+D48-D49</f>
+        <v>35.222000000000016</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" ref="E50:H50" si="6">+E48-E49</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F50" s="14">
+        <f t="shared" si="6"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G50" s="14">
+        <f t="shared" si="6"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="6"/>
+        <v>18.854000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="17">
+        <f>+D42/D40</f>
+        <v>0.67725102151331662</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" ref="E52:K52" si="7">+E42/E40</f>
+        <v>0.67130500188040609</v>
+      </c>
+      <c r="F52" s="17">
+        <f t="shared" si="7"/>
+        <v>0.67758007117437724</v>
+      </c>
+      <c r="G52" s="17">
+        <f t="shared" si="7"/>
+        <v>0.63745190252244555</v>
+      </c>
+      <c r="H52" s="17">
+        <f t="shared" si="7"/>
+        <v>0.73316637949178964</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="1">
+        <v>16739</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{67E039B0-57DC-4A4A-BF3B-490AD339C2EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/4568 JP Daiichi Sankyo.xlsx
+++ b/4568 JP Daiichi Sankyo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C7267-2570-4045-A39D-9207458B78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8B19B-9482-4FFE-89CF-931DAB88A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="2355" windowWidth="27720" windowHeight="16485" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
+    <workbookView xWindow="-25500" yWindow="1050" windowWidth="23760" windowHeight="18960" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>Price JPY</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q422</t>
   </si>
 </sst>
 </file>
@@ -251,9 +260,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -384,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -412,11 +421,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -789,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36FBF67-5934-4EC1-85D7-91280292AF8D}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -841,10 +868,11 @@
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>1916.81864</v>
+        <f>1947.034029-30.002636</f>
+        <v>1917.031393</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -863,7 +891,7 @@
       </c>
       <c r="M4" s="1">
         <f>+M2*M3/1000</f>
-        <v>7954.797356</v>
+        <v>7955.6802809499995</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -926,7 +954,7 @@
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>7174.7913560000006</v>
+        <v>7175.6742809500001</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -982,23 +1010,37 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.5703125" customWidth="1"/>
+    <col min="3" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="10" width="10.5703125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -1019,16 +1061,16 @@
       <c r="G2" s="13">
         <v>44651</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="18">
         <v>44742</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="18">
         <v>44834</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="18">
         <v>44926</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="18">
         <v>45016</v>
       </c>
     </row>
@@ -1048,9 +1090,12 @@
       <c r="G3" s="15">
         <v>22</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="19">
         <v>25.1</v>
       </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
@@ -1068,9 +1113,12 @@
       <c r="G4" s="15">
         <v>0.5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="19">
         <v>0.6</v>
       </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -1088,9 +1136,12 @@
       <c r="G5" s="15">
         <v>22.6</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="19">
         <v>28.6</v>
       </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
@@ -1108,9 +1159,12 @@
       <c r="G6" s="15">
         <v>4.2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="19">
         <v>4.5999999999999996</v>
       </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -1132,13 +1186,26 @@
         <f t="shared" si="0"/>
         <v>49.300000000000004</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="20">
         <f>SUM(H3:H6)</f>
         <v>58.900000000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
     <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>43</v>
@@ -1155,9 +1222,12 @@
       <c r="G10" s="14">
         <v>13.8</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="21">
         <v>20</v>
       </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
@@ -1175,9 +1245,12 @@
       <c r="G11" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="21">
         <v>6.7</v>
       </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
@@ -1195,9 +1268,12 @@
       <c r="G12" s="14">
         <v>2.6</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="21">
         <v>2.4</v>
       </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
@@ -1215,9 +1291,12 @@
       <c r="G13" s="14">
         <v>1.4</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="21">
         <v>2.2000000000000002</v>
       </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
@@ -1239,12 +1318,20 @@
         <f>SUM(G10:G13)</f>
         <v>21.9</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="20">
         <f>SUM(H10:H13)</f>
         <v>31.299999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
     <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>45</v>
@@ -1252,78 +1339,104 @@
       <c r="D16" s="14">
         <v>0.6</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="14">
         <v>14.9</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="21">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="14">
         <v>7.9</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="21">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="14">
         <v>23.4</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="21">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="14">
         <v>0.7</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="21">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14">
         <v>5.6</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="21">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="14">
         <v>26.5</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="21">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1339,11 +1452,14 @@
       <c r="G24" s="14">
         <v>22</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="21">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>30</v>
       </c>
@@ -1359,11 +1475,14 @@
       <c r="G25" s="14">
         <v>7.3</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="21">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1379,11 +1498,14 @@
       <c r="G26" s="14">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="21">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1399,11 +1521,14 @@
       <c r="G27" s="14">
         <v>4</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="21">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
@@ -1419,11 +1544,14 @@
       <c r="G28" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="21">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
@@ -1439,11 +1567,14 @@
       <c r="G29" s="14">
         <v>4.3</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="21">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
@@ -1459,11 +1590,14 @@
       <c r="G30" s="14">
         <v>4.8</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="21">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
         <v>36</v>
       </c>
@@ -1479,11 +1613,14 @@
       <c r="G31" s="14">
         <v>3.8</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="21">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>37</v>
       </c>
@@ -1499,9 +1636,12 @@
       <c r="G32" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="21">
         <v>4.5999999999999996</v>
       </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
@@ -1519,9 +1659,12 @@
       <c r="G33" s="14">
         <v>2.6</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="21">
         <v>2.4</v>
       </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
@@ -1539,9 +1682,12 @@
       <c r="G34" s="14">
         <v>1.2</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="21">
         <v>1.4</v>
       </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
@@ -1559,9 +1705,12 @@
       <c r="G35" s="14">
         <v>18.8</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="21">
         <v>21</v>
       </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
@@ -1579,9 +1728,12 @@
       <c r="G36" s="14">
         <v>-2.9</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="21">
         <v>0.5</v>
       </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
@@ -1599,9 +1751,12 @@
       <c r="G37" s="14">
         <v>95.8</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="21">
         <v>109</v>
       </c>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
@@ -1619,11 +1774,19 @@
       <c r="G38" s="14">
         <v>15</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="21">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+    </row>
     <row r="40" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>15</v>
@@ -1640,16 +1803,17 @@
       <c r="G40" s="16">
         <v>233.9</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="20">
         <v>280.31700000000001</v>
       </c>
-      <c r="I40" s="16">
-        <v>280</v>
-      </c>
-      <c r="J40" s="16">
+      <c r="I40" s="20">
+        <f>607.797-H40</f>
+        <v>327.48</v>
+      </c>
+      <c r="J40" s="20">
         <v>300</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="20">
         <v>300</v>
       </c>
     </row>
@@ -1669,9 +1833,15 @@
       <c r="G41" s="14">
         <v>84.8</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="21">
         <v>74.798000000000002</v>
       </c>
+      <c r="I41" s="21">
+        <f>159.567-H41</f>
+        <v>84.769000000000005</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
@@ -1693,18 +1863,19 @@
         <f t="shared" si="1"/>
         <v>149.10000000000002</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="21">
         <f>+H40-H41</f>
         <v>205.51900000000001</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="21">
         <f t="shared" ref="I42:J42" si="2">+I40-I41</f>
-        <v>280</v>
-      </c>
-      <c r="J42" s="14">
+        <v>242.71100000000001</v>
+      </c>
+      <c r="J42" s="21">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="K42" s="21"/>
     </row>
     <row r="43" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
@@ -1722,9 +1893,15 @@
       <c r="G43" s="14">
         <v>96.4</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="21">
         <v>96.373000000000005</v>
       </c>
+      <c r="I43" s="21">
+        <f>209.859-H43</f>
+        <v>113.486</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
     </row>
     <row r="44" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
@@ -1742,9 +1919,15 @@
       <c r="G44" s="14">
         <v>85</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="21">
         <v>74.930999999999997</v>
       </c>
+      <c r="I44" s="21">
+        <f>150.654-H44</f>
+        <v>75.722999999999999</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
     </row>
     <row r="45" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
@@ -1766,10 +1949,16 @@
         <f t="shared" si="3"/>
         <v>181.4</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="21">
         <f>+H43+H44</f>
         <v>171.304</v>
       </c>
+      <c r="I45" s="21">
+        <f>+I43+I44</f>
+        <v>189.209</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
@@ -1791,10 +1980,16 @@
         <f t="shared" si="4"/>
         <v>-32.299999999999983</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="21">
         <f>+H42-H45</f>
         <v>34.215000000000003</v>
       </c>
+      <c r="I46" s="21">
+        <f>+I42-I45</f>
+        <v>53.50200000000001</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
@@ -1804,10 +1999,13 @@
         <f>2.225+2.055-0.759-0.002</f>
         <v>3.5190000000000006</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="21">
         <f>0.168+1.562-6.507-0.021</f>
         <v>-4.7979999999999992</v>
       </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
@@ -1829,10 +2027,13 @@
         <f t="shared" si="5"/>
         <v>-32.299999999999983</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="21">
         <f t="shared" si="5"/>
         <v>29.417000000000005</v>
       </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
     </row>
     <row r="49" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
@@ -1841,9 +2042,12 @@
       <c r="D49" s="14">
         <v>11.842000000000001</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="21">
         <v>10.563000000000001</v>
       </c>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
     </row>
     <row r="50" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
@@ -1865,10 +2069,13 @@
         <f t="shared" si="6"/>
         <v>-32.299999999999983</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="21">
         <f t="shared" si="6"/>
         <v>18.854000000000006</v>
       </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="14" t="s">
@@ -1879,7 +2086,7 @@
         <v>0.67725102151331662</v>
       </c>
       <c r="E52" s="17">
-        <f t="shared" ref="E52:K52" si="7">+E42/E40</f>
+        <f t="shared" ref="E52:H52" si="7">+E42/E40</f>
         <v>0.67130500188040609</v>
       </c>
       <c r="F52" s="17">
@@ -1890,19 +2097,19 @@
         <f t="shared" si="7"/>
         <v>0.63745190252244555</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="22">
         <f t="shared" si="7"/>
         <v>0.73316637949178964</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="23">
         <v>16739</v>
       </c>
     </row>

--- a/4568 JP Daiichi Sankyo.xlsx
+++ b/4568 JP Daiichi Sankyo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8B19B-9482-4FFE-89CF-931DAB88A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593360A-2DA5-45FF-8A6C-73DE35359C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="1050" windowWidth="23760" windowHeight="18960" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
+    <workbookView xWindow="17190" yWindow="45" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -466,16 +466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:rowOff>36636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -490,8 +490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="43962"/>
-          <a:ext cx="0" cy="10052538"/>
+          <a:off x="6564923" y="36636"/>
+          <a:ext cx="0" cy="10374923"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/4568 JP Daiichi Sankyo.xlsx
+++ b/4568 JP Daiichi Sankyo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593360A-2DA5-45FF-8A6C-73DE35359C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ED250-00C2-49C7-A406-60949458A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="45" windowWidth="33795" windowHeight="20775" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
+    <workbookView xWindow="1200" yWindow="465" windowWidth="24480" windowHeight="20415" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={984FF2A3-7DCE-433B-B91A-4678BDC3C64E}</author>
+    <author>tc={BD38DEB3-135F-4788-B545-92FF04718AFE}</author>
+  </authors>
+  <commentList>
+    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{984FF2A3-7DCE-433B-B91A-4678BDC3C64E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q422 guidance 259.4m</t>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="1" shapeId="0" xr:uid="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    forecast</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Price JPY</t>
   </si>
@@ -253,6 +280,18 @@
   </si>
   <si>
     <t>Q422</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
@@ -264,7 +303,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -283,6 +322,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -393,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -444,6 +489,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,16 +516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36636</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -490,7 +540,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6564923" y="36636"/>
+          <a:off x="7151077" y="0"/>
           <a:ext cx="0" cy="10374923"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -515,6 +565,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,13 +868,22 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U8" dT="2023-06-10T03:56:36.79" personId="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" id="{984FF2A3-7DCE-433B-B91A-4678BDC3C64E}">
+    <text>Q422 guidance 259.4m</text>
+  </threadedComment>
+  <threadedComment ref="U11" dT="2023-06-10T03:55:34.71" personId="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" id="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
+    <text>forecast</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36FBF67-5934-4EC1-85D7-91280292AF8D}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -868,11 +933,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <f>1947.034029-30.002636</f>
-        <v>1917.031393</v>
+        <v>1917.0346059999999</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -891,7 +955,7 @@
       </c>
       <c r="M4" s="1">
         <f>+M2*M3/1000</f>
-        <v>7955.6802809499995</v>
+        <v>7955.6936148999994</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -954,7 +1018,7 @@
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>7175.6742809500001</v>
+        <v>7175.6876149</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1006,1110 +1070,1497 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF968C-0A99-4EB6-8B10-E503E69B2E33}">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF968C-0A99-4EB6-8B10-E503E69B2E33}">
+  <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="10" width="10.5703125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="11"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="15" width="9.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="H2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="L2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C3" s="13">
         <v>44286</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D3" s="13">
         <v>44377</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E3" s="13">
         <v>44469</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F3" s="13">
         <v>44561</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G3" s="13">
         <v>44651</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H3" s="18">
         <v>44742</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I3" s="18">
         <v>44834</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J3" s="18">
         <v>44926</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K3" s="18">
         <v>45016</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="L3" s="18">
+        <v>45107</v>
+      </c>
+      <c r="M3" s="18">
+        <v>45199</v>
+      </c>
+      <c r="N3" s="18">
+        <v>45291</v>
+      </c>
+      <c r="O3" s="18">
+        <v>45016</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>43555</v>
+      </c>
+      <c r="R3" s="13">
+        <v>43921</v>
+      </c>
+      <c r="S3" s="13">
+        <v>44286</v>
+      </c>
+      <c r="T3" s="13">
+        <v>44651</v>
+      </c>
+      <c r="U3" s="13">
+        <v>45016</v>
+      </c>
+      <c r="V3" s="13">
+        <f>+U3+366</f>
+        <v>45382</v>
+      </c>
+      <c r="W3" s="13">
+        <f>+V3+365</f>
+        <v>45747</v>
+      </c>
+      <c r="X3" s="13">
+        <f>+W3+365</f>
+        <v>46112</v>
+      </c>
+      <c r="Y3" s="13">
+        <f>+X3+365</f>
+        <v>46477</v>
+      </c>
+      <c r="Z3" s="13">
+        <f>+Y3+366</f>
+        <v>46843</v>
+      </c>
+      <c r="AA3" s="13">
+        <f>+Z3+365</f>
+        <v>47208</v>
+      </c>
+      <c r="AB3" s="13">
+        <f>+AA3+365</f>
+        <v>47573</v>
+      </c>
+      <c r="AC3" s="13">
+        <f>+AB3+365</f>
+        <v>47938</v>
+      </c>
+      <c r="AD3" s="13">
+        <f>+AC3+366</f>
+        <v>48304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="15">
         <v>22.9</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E4" s="15">
         <v>21.9</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="15">
         <v>25.6</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G4" s="15">
         <v>22</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H4" s="19">
         <v>25.1</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D5" s="15">
         <v>0.5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E5" s="15">
         <v>0.5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F5" s="15">
         <v>0.4</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G5" s="15">
         <v>0.5</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H5" s="19">
         <v>0.6</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="15">
-        <v>23.4</v>
-      </c>
-      <c r="E5" s="15">
-        <v>23.7</v>
-      </c>
-      <c r="F5" s="15">
-        <v>27.2</v>
-      </c>
-      <c r="G5" s="15">
-        <v>22.6</v>
-      </c>
-      <c r="H5" s="19">
-        <v>28.6</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="15">
-        <v>2.7</v>
+        <v>23.4</v>
       </c>
       <c r="E6" s="15">
-        <v>3.6</v>
+        <v>23.7</v>
       </c>
       <c r="F6" s="15">
-        <v>3.8</v>
+        <v>27.2</v>
       </c>
       <c r="G6" s="15">
-        <v>4.2</v>
+        <v>22.6</v>
       </c>
       <c r="H6" s="19">
-        <v>4.5999999999999996</v>
+        <v>28.6</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:G7" si="0">SUM(D3:D6)</f>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:G8" si="0">SUM(D4:D7)</f>
         <v>49.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>49.699999999999996</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>49.300000000000004</v>
       </c>
-      <c r="H7" s="20">
-        <f>SUM(H3:H6)</f>
+      <c r="H8" s="20">
+        <f>SUM(H4:H7)</f>
         <v>58.900000000000006</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="S8" s="16">
+        <v>205.6</v>
+      </c>
+      <c r="T8" s="16">
+        <v>244</v>
+      </c>
+      <c r="U8" s="16">
+        <v>259.39999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="E10" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>11.9</v>
-      </c>
-      <c r="G10" s="14">
-        <v>13.8</v>
-      </c>
-      <c r="H10" s="21">
-        <v>20</v>
-      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="14">
-        <v>1.2</v>
+        <v>9.6</v>
       </c>
       <c r="E11" s="14">
-        <v>1.4</v>
+        <v>10.1</v>
       </c>
       <c r="F11" s="14">
-        <v>2.2999999999999998</v>
+        <v>11.9</v>
       </c>
       <c r="G11" s="14">
-        <v>4.0999999999999996</v>
+        <v>13.8</v>
       </c>
       <c r="H11" s="21">
-        <v>6.7</v>
+        <v>20</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="S11" s="14">
+        <v>45.4</v>
+      </c>
+      <c r="T11" s="14">
+        <v>144.6</v>
+      </c>
+      <c r="U11" s="14">
+        <v>195.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D12" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="E12" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="F12" s="14">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G12" s="14">
-        <v>2.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H12" s="21">
-        <v>2.4</v>
+        <v>6.7</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E13" s="14">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="14">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G13" s="14">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H13" s="21">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="16">
-        <f>SUM(D10:D13)</f>
+      <c r="D15" s="16">
+        <f>SUM(D11:D14)</f>
         <v>13</v>
       </c>
-      <c r="E14" s="16">
-        <f>SUM(E10:E13)</f>
+      <c r="E15" s="16">
+        <f>SUM(E11:E14)</f>
         <v>13.7</v>
       </c>
-      <c r="F14" s="16">
-        <f>SUM(F10:F13)</f>
+      <c r="F15" s="16">
+        <f>SUM(F11:F14)</f>
         <v>16.8</v>
       </c>
-      <c r="G14" s="16">
-        <f>SUM(G10:G13)</f>
+      <c r="G15" s="16">
+        <f>SUM(G11:G14)</f>
         <v>21.9</v>
       </c>
-      <c r="H14" s="20">
-        <f>SUM(H10:H13)</f>
+      <c r="H15" s="20">
+        <f>SUM(H11:H14)</f>
         <v>31.299999999999997</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0.8</v>
-      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="S15" s="16">
+        <v>80.8</v>
+      </c>
+      <c r="T15" s="16">
+        <v>258.39999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="H17" s="21">
-        <v>14.1</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="14">
-        <v>7.9</v>
+        <v>14.9</v>
       </c>
       <c r="H18" s="21">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="14">
-        <v>23.4</v>
+        <v>7.9</v>
       </c>
       <c r="H19" s="21">
-        <v>28.6</v>
+        <v>12.4</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="14">
-        <v>0.7</v>
+        <v>23.4</v>
       </c>
       <c r="H20" s="21">
-        <v>1.3</v>
+        <v>28.6</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="14">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H21" s="21">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="14">
-        <v>26.5</v>
+        <v>5.6</v>
       </c>
       <c r="H22" s="21">
-        <v>31.9</v>
+        <v>5.4</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="14">
+        <v>26.5</v>
+      </c>
+      <c r="H23" s="21">
+        <v>31.9</v>
+      </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="14">
-        <v>22.9</v>
-      </c>
-      <c r="E24" s="14">
-        <v>21.9</v>
-      </c>
-      <c r="F24" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="G24" s="14">
-        <v>22</v>
-      </c>
-      <c r="H24" s="21">
-        <v>25.1</v>
-      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="14">
-        <v>7.1</v>
+        <v>22.9</v>
       </c>
       <c r="E25" s="14">
-        <v>7.1</v>
+        <v>21.9</v>
       </c>
       <c r="F25" s="14">
-        <v>8.6999999999999993</v>
+        <v>25.6</v>
       </c>
       <c r="G25" s="14">
-        <v>7.3</v>
+        <v>22</v>
       </c>
       <c r="H25" s="21">
-        <v>8.9</v>
+        <v>25.1</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="14">
-        <v>9.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E26" s="14">
-        <v>9.3000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="F26" s="14">
-        <v>10.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G26" s="14">
-        <v>9.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="H26" s="21">
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="14">
-        <v>4.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E27" s="14">
-        <v>3.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F27" s="14">
-        <v>4.7</v>
+        <v>10.3</v>
       </c>
       <c r="G27" s="14">
-        <v>4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H27" s="21">
-        <v>4.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14">
-        <v>6.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E28" s="14">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="F28" s="14">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="G28" s="14">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H28" s="21">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="14">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="E29" s="14">
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="F29" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G29" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G29" s="14">
-        <v>4.3</v>
-      </c>
       <c r="H29" s="21">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F30" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E30" s="14">
-        <v>5</v>
-      </c>
-      <c r="F30" s="14">
-        <v>5.5</v>
-      </c>
       <c r="G30" s="14">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H30" s="21">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="14">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E31" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="14">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="G31" s="14">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H31" s="21">
-        <v>4.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="14">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="E32" s="14">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="14">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="G32" s="14">
-        <v>4.5999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="H32" s="21">
-        <v>4.5999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="14">
-        <v>2.2000000000000002</v>
+        <v>5.8</v>
       </c>
       <c r="E33" s="14">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="F33" s="14">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="G33" s="14">
-        <v>2.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H33" s="21">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="14">
-        <v>0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E34" s="14">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F34" s="14">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="G34" s="14">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H34" s="21">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="14">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E35" s="14">
-        <v>19.8</v>
+        <v>1.2</v>
       </c>
       <c r="F35" s="14">
-        <v>24.2</v>
+        <v>1.3</v>
       </c>
       <c r="G35" s="14">
-        <v>18.8</v>
+        <v>1.2</v>
       </c>
       <c r="H35" s="21">
-        <v>21</v>
+        <v>1.4</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="14">
-        <v>1.4</v>
+        <v>20</v>
       </c>
       <c r="E36" s="14">
-        <v>4</v>
+        <v>19.8</v>
       </c>
       <c r="F36" s="14">
-        <v>12.3</v>
+        <v>24.2</v>
       </c>
       <c r="G36" s="14">
-        <v>-2.9</v>
+        <v>18.8</v>
       </c>
       <c r="H36" s="21">
-        <v>0.5</v>
+        <v>21</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D37" s="14">
-        <v>129.1</v>
+        <v>1.4</v>
       </c>
       <c r="E37" s="14">
-        <v>126.5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="14">
-        <v>138.1</v>
+        <v>12.3</v>
       </c>
       <c r="G37" s="14">
-        <v>95.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H37" s="21">
-        <v>109</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D38" s="14">
-        <v>15.4</v>
+        <v>129.1</v>
       </c>
       <c r="E38" s="14">
-        <v>18.399999999999999</v>
+        <v>126.5</v>
       </c>
       <c r="F38" s="14">
-        <v>15.9</v>
+        <v>138.1</v>
       </c>
       <c r="G38" s="14">
-        <v>15</v>
+        <v>95.8</v>
       </c>
       <c r="H38" s="21">
-        <v>15.3</v>
+        <v>109</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-    </row>
-    <row r="40" spans="2:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="E39" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="G39" s="14">
         <v>15</v>
       </c>
-      <c r="D40" s="16">
+      <c r="H39" s="21">
+        <v>15.3</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="2:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="25">
         <v>264.06900000000002</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="25">
         <v>265.89999999999998</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="25">
         <v>281</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="25">
         <v>233.9</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H41" s="26">
         <v>280.31700000000001</v>
       </c>
-      <c r="I40" s="20">
-        <f>607.797-H40</f>
+      <c r="I41" s="26">
+        <f>607.797-H41</f>
         <v>327.48</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J41" s="26">
         <v>300</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K41" s="26">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25">
+        <v>1044.8920000000001</v>
+      </c>
+      <c r="U41" s="25">
+        <v>1278.4780000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <v>85.227999999999994</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="14">
         <v>87.4</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="14">
         <v>90.6</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <v>84.8</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H42" s="21">
         <v>74.798000000000002</v>
       </c>
-      <c r="I41" s="21">
-        <f>159.567-H41</f>
+      <c r="I42" s="21">
+        <f>159.567-H42</f>
         <v>84.769000000000005</v>
       </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="T42" s="14">
+        <v>353.4</v>
+      </c>
+      <c r="U42" s="14">
+        <v>363.52499999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="14">
-        <f t="shared" ref="D42:G42" si="1">+D40-D41</f>
+      <c r="D43" s="14">
+        <f t="shared" ref="D43:G43" si="1">+D41-D42</f>
         <v>178.84100000000001</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="14">
         <f t="shared" si="1"/>
         <v>178.49999999999997</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="14">
         <f t="shared" si="1"/>
         <v>190.4</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <f t="shared" si="1"/>
         <v>149.10000000000002</v>
       </c>
-      <c r="H42" s="21">
-        <f>+H40-H41</f>
+      <c r="H43" s="21">
+        <f>+H41-H42</f>
         <v>205.51900000000001</v>
       </c>
-      <c r="I42" s="21">
-        <f t="shared" ref="I42:J42" si="2">+I40-I41</f>
+      <c r="I43" s="21">
+        <f t="shared" ref="I43:J43" si="2">+I41-I42</f>
         <v>242.71100000000001</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J43" s="21">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="T43" s="14">
+        <f>+T41-T42</f>
+        <v>691.49200000000008</v>
+      </c>
+      <c r="U43" s="14">
+        <f>+U41-U42</f>
+        <v>914.95300000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <v>81.257999999999996</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E44" s="14">
         <v>84.5</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F44" s="14">
         <v>90</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>96.4</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H44" s="21">
         <v>96.373000000000005</v>
       </c>
-      <c r="I43" s="21">
-        <f>209.859-H43</f>
+      <c r="I44" s="21">
+        <f>209.859-H44</f>
         <v>113.486</v>
-      </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="14">
-        <v>54.037999999999997</v>
-      </c>
-      <c r="E44" s="14">
-        <v>55</v>
-      </c>
-      <c r="F44" s="14">
-        <v>60.1</v>
-      </c>
-      <c r="G44" s="14">
-        <v>85</v>
-      </c>
-      <c r="H44" s="21">
-        <v>74.930999999999997</v>
-      </c>
-      <c r="I44" s="21">
-        <f>150.654-H44</f>
-        <v>75.722999999999999</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="T44" s="14">
+        <v>362.45600000000002</v>
+      </c>
+      <c r="U44" s="14">
+        <v>471.221</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="14">
+        <v>54.037999999999997</v>
+      </c>
+      <c r="E45" s="14">
+        <v>55</v>
+      </c>
+      <c r="F45" s="14">
+        <v>60.1</v>
+      </c>
+      <c r="G45" s="14">
+        <v>85</v>
+      </c>
+      <c r="H45" s="21">
+        <v>74.930999999999997</v>
+      </c>
+      <c r="I45" s="21">
+        <f>150.654-H45</f>
+        <v>75.722999999999999</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="T45" s="14">
+        <v>260.32600000000002</v>
+      </c>
+      <c r="U45" s="14">
+        <v>341.57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="14">
-        <f t="shared" ref="D45:G45" si="3">+D43+D44</f>
+      <c r="D46" s="14">
+        <f t="shared" ref="D46:G46" si="3">+D44+D45</f>
         <v>135.29599999999999</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <f t="shared" si="3"/>
         <v>139.5</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <f t="shared" si="3"/>
         <v>150.1</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <f t="shared" si="3"/>
         <v>181.4</v>
       </c>
-      <c r="H45" s="21">
-        <f>+H43+H44</f>
+      <c r="H46" s="21">
+        <f>+H44+H45</f>
         <v>171.304</v>
       </c>
-      <c r="I45" s="21">
-        <f>+I43+I44</f>
+      <c r="I46" s="21">
+        <f>+I44+I45</f>
         <v>189.209</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="14" t="s">
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="T46" s="14">
+        <f>+T44+T45</f>
+        <v>622.78200000000004</v>
+      </c>
+      <c r="U46" s="14">
+        <f>+U44+U45</f>
+        <v>812.79099999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="14">
-        <f t="shared" ref="D46:G46" si="4">+D42-D45</f>
+      <c r="D47" s="14">
+        <f t="shared" ref="D47:G47" si="4">+D43-D46</f>
         <v>43.545000000000016</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <f t="shared" si="4"/>
         <v>38.999999999999972</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <f t="shared" si="4"/>
         <v>40.300000000000011</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <f t="shared" si="4"/>
         <v>-32.299999999999983</v>
       </c>
-      <c r="H46" s="21">
-        <f>+H42-H45</f>
+      <c r="H47" s="21">
+        <f>+H43-H46</f>
         <v>34.215000000000003</v>
       </c>
-      <c r="I46" s="21">
-        <f>+I42-I45</f>
+      <c r="I47" s="21">
+        <f>+I43-I46</f>
         <v>53.50200000000001</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="T47" s="14">
+        <f>+T43-T46</f>
+        <v>68.710000000000036</v>
+      </c>
+      <c r="U47" s="14">
+        <f>+U43-U46</f>
+        <v>102.16200000000015</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f>2.225+2.055-0.759-0.002</f>
         <v>3.5190000000000006</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H48" s="21">
         <f>0.168+1.562-6.507-0.021</f>
         <v>-4.7979999999999992</v>
-      </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="14">
-        <f>+D46+D47</f>
-        <v>47.064000000000014</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" ref="E48:H48" si="5">+E46+E47</f>
-        <v>38.999999999999972</v>
-      </c>
-      <c r="F48" s="14">
-        <f t="shared" si="5"/>
-        <v>40.300000000000011</v>
-      </c>
-      <c r="G48" s="14">
-        <f t="shared" si="5"/>
-        <v>-32.299999999999983</v>
-      </c>
-      <c r="H48" s="21">
-        <f t="shared" si="5"/>
-        <v>29.417000000000005</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="T48" s="14">
+        <f>4.321-0.003+0.5</f>
+        <v>4.8179999999999996</v>
+      </c>
+      <c r="U48" s="14">
+        <f>19.101-0.68+6.3</f>
+        <v>24.721</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D49" s="14">
-        <v>11.842000000000001</v>
+        <f>+D47+D48</f>
+        <v>47.064000000000014</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" ref="E49:H49" si="5">+E47+E48</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F49" s="14">
+        <f t="shared" si="5"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G49" s="14">
+        <f t="shared" si="5"/>
+        <v>-32.299999999999983</v>
       </c>
       <c r="H49" s="21">
-        <v>10.563000000000001</v>
+        <f t="shared" si="5"/>
+        <v>29.417000000000005</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="T49" s="14">
+        <f>+T47+T48</f>
+        <v>73.528000000000034</v>
+      </c>
+      <c r="U49" s="14">
+        <f>+U47+U48</f>
+        <v>126.88300000000015</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="14">
-        <f>+D48-D49</f>
-        <v>35.222000000000016</v>
-      </c>
-      <c r="E50" s="14">
-        <f t="shared" ref="E50:H50" si="6">+E48-E49</f>
-        <v>38.999999999999972</v>
-      </c>
-      <c r="F50" s="14">
-        <f t="shared" si="6"/>
-        <v>40.300000000000011</v>
-      </c>
-      <c r="G50" s="14">
-        <f t="shared" si="6"/>
-        <v>-32.299999999999983</v>
+        <v>11.842000000000001</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" si="6"/>
-        <v>18.854000000000006</v>
+        <v>10.563000000000001</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="T50" s="15">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="U50" s="14">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="14">
+        <f>+D49-D50</f>
+        <v>35.222000000000016</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" ref="E51:H51" si="6">+E49-E50</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" si="6"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G51" s="14">
+        <f t="shared" si="6"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H51" s="21">
+        <f t="shared" si="6"/>
+        <v>18.854000000000006</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="T51" s="14">
+        <f>+T49-T50</f>
+        <v>66.985000000000028</v>
+      </c>
+      <c r="U51" s="14">
+        <f>+U49-U50</f>
+        <v>109.18300000000015</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="17">
-        <f>+D42/D40</f>
+      <c r="D55" s="17">
+        <f>+D43/D41</f>
         <v>0.67725102151331662</v>
       </c>
-      <c r="E52" s="17">
-        <f t="shared" ref="E52:H52" si="7">+E42/E40</f>
+      <c r="E55" s="17">
+        <f>+E43/E41</f>
         <v>0.67130500188040609</v>
       </c>
-      <c r="F52" s="17">
-        <f t="shared" si="7"/>
+      <c r="F55" s="17">
+        <f>+F43/F41</f>
         <v>0.67758007117437724</v>
       </c>
-      <c r="G52" s="17">
-        <f t="shared" si="7"/>
+      <c r="G55" s="17">
+        <f>+G43/G41</f>
         <v>0.63745190252244555</v>
       </c>
-      <c r="H52" s="22">
-        <f t="shared" si="7"/>
+      <c r="H55" s="22">
+        <f>+H43/H41</f>
         <v>0.73316637949178964</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H56" s="23">
         <v>16739</v>
       </c>
     </row>
@@ -2119,5 +2570,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/4568 JP Daiichi Sankyo.xlsx
+++ b/4568 JP Daiichi Sankyo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ED250-00C2-49C7-A406-60949458A9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF52D65-2336-49D0-8B39-7F486532C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="465" windowWidth="24480" windowHeight="20415" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
+    <workbookView xWindow="-21750" yWindow="825" windowWidth="21105" windowHeight="18525" activeTab="1" xr2:uid="{D043BADF-5FB4-419E-85DA-C93894112E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={984FF2A3-7DCE-433B-B91A-4678BDC3C64E}</author>
     <author>tc={BD38DEB3-135F-4788-B545-92FF04718AFE}</author>
   </authors>
   <commentList>
-    <comment ref="U8" authorId="0" shapeId="0" xr:uid="{984FF2A3-7DCE-433B-B91A-4678BDC3C64E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Q422 guidance 259.4m</t>
-      </text>
-    </comment>
-    <comment ref="U11" authorId="1" shapeId="0" xr:uid="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
+    <comment ref="Z11" authorId="0" shapeId="0" xr:uid="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Price JPY</t>
   </si>
@@ -147,9 +138,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>Edoxaban</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -292,18 +280,63 @@
   </si>
   <si>
     <t>Q423</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>GE Injectables</t>
+  </si>
+  <si>
+    <t>Enhertu ex-JP</t>
+  </si>
+  <si>
+    <t>Edoxaban ex-JP</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Datopotamab deruxtecan</t>
+  </si>
+  <si>
+    <t>Vanflyta</t>
+  </si>
+  <si>
+    <t>Minnebro</t>
+  </si>
+  <si>
+    <t>Other/Trueup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -322,12 +355,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -438,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -494,13 +521,18 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{61B051B5-FF31-4666-ABA5-536516EBE3C3}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,15 +548,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>36635</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>58615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -540,8 +572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7151077" y="0"/>
-          <a:ext cx="0" cy="10374923"/>
+          <a:off x="10191750" y="0"/>
+          <a:ext cx="0" cy="11180884"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -574,9 +606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -614,7 +646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -720,7 +752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -862,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,10 +902,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U8" dT="2023-06-10T03:56:36.79" personId="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" id="{984FF2A3-7DCE-433B-B91A-4678BDC3C64E}">
-    <text>Q422 guidance 259.4m</text>
-  </threadedComment>
-  <threadedComment ref="U11" dT="2023-06-10T03:55:34.71" personId="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" id="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
+  <threadedComment ref="Z11" dT="2023-06-10T03:55:34.71" personId="{4A0968E0-6878-4AA6-AE96-A25A3E739BA9}" id="{BD38DEB3-135F-4788-B545-92FF04718AFE}">
     <text>forecast</text>
   </threadedComment>
 </ThreadedComments>
@@ -883,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36FBF67-5934-4EC1-85D7-91280292AF8D}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -917,12 +948,12 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>4150</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -933,18 +964,18 @@
         <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>1917.0346059999999</v>
+        <v>1914.36284</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -955,18 +986,18 @@
       </c>
       <c r="M4" s="1">
         <f>+M2*M3/1000</f>
-        <v>7955.6936148999994</v>
+        <v>11677.613324000002</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -975,16 +1006,16 @@
         <v>3</v>
       </c>
       <c r="M5" s="1">
-        <f>658.064+136.178+149.131</f>
-        <v>943.37299999999993</v>
+        <f>805.259+204.096+159.374+0.634</f>
+        <v>1169.3630000000001</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -995,19 +1026,19 @@
         <v>4</v>
       </c>
       <c r="M6" s="1">
-        <f>142.973+20.394</f>
-        <v>163.36700000000002</v>
+        <f>101.218+0.399+13.8+49.577</f>
+        <v>164.994</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1018,7 +1049,7 @@
       </c>
       <c r="M7" s="1">
         <f>+M4-M5+M6</f>
-        <v>7175.6876149</v>
+        <v>10673.244324000003</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1071,13 +1102,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AF968C-0A99-4EB6-8B10-E503E69B2E33}">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1086,41 +1117,53 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="11" customWidth="1"/>
+    <col min="8" max="20" width="9.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>18</v>
       </c>
@@ -1161,63 +1204,80 @@
         <v>45291</v>
       </c>
       <c r="O3" s="18">
+        <v>45382</v>
+      </c>
+      <c r="P3" s="18">
+        <f>+L3+366</f>
+        <v>45473</v>
+      </c>
+      <c r="Q3" s="18">
+        <f>+M3+366</f>
+        <v>45565</v>
+      </c>
+      <c r="R3" s="18">
+        <f>+N3+366</f>
+        <v>45657</v>
+      </c>
+      <c r="S3" s="18">
+        <f>+O3+365</f>
+        <v>45747</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="V3" s="13">
+        <v>43555</v>
+      </c>
+      <c r="W3" s="13">
+        <v>43921</v>
+      </c>
+      <c r="X3" s="13">
+        <v>44286</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>44651</v>
+      </c>
+      <c r="Z3" s="13">
         <v>45016</v>
       </c>
-      <c r="Q3" s="13">
-        <v>43555</v>
-      </c>
-      <c r="R3" s="13">
-        <v>43921</v>
-      </c>
-      <c r="S3" s="13">
-        <v>44286</v>
-      </c>
-      <c r="T3" s="13">
-        <v>44651</v>
-      </c>
-      <c r="U3" s="13">
-        <v>45016</v>
-      </c>
-      <c r="V3" s="13">
-        <f>+U3+366</f>
+      <c r="AA3" s="13">
+        <f>+Z3+366</f>
         <v>45382</v>
-      </c>
-      <c r="W3" s="13">
-        <f>+V3+365</f>
-        <v>45747</v>
-      </c>
-      <c r="X3" s="13">
-        <f>+W3+365</f>
-        <v>46112</v>
-      </c>
-      <c r="Y3" s="13">
-        <f>+X3+365</f>
-        <v>46477</v>
-      </c>
-      <c r="Z3" s="13">
-        <f>+Y3+366</f>
-        <v>46843</v>
-      </c>
-      <c r="AA3" s="13">
-        <f>+Z3+365</f>
-        <v>47208</v>
       </c>
       <c r="AB3" s="13">
         <f>+AA3+365</f>
-        <v>47573</v>
+        <v>45747</v>
       </c>
       <c r="AC3" s="13">
         <f>+AB3+365</f>
+        <v>46112</v>
+      </c>
+      <c r="AD3" s="13">
+        <f>+AC3+365</f>
+        <v>46477</v>
+      </c>
+      <c r="AE3" s="13">
+        <f>+AD3+366</f>
+        <v>46843</v>
+      </c>
+      <c r="AF3" s="13">
+        <f>+AE3+365</f>
+        <v>47208</v>
+      </c>
+      <c r="AG3" s="13">
+        <f>+AF3+365</f>
+        <v>47573</v>
+      </c>
+      <c r="AH3" s="13">
+        <f>+AG3+365</f>
         <v>47938</v>
       </c>
-      <c r="AD3" s="13">
-        <f>+AC3+366</f>
+      <c r="AI3" s="13">
+        <f>+AH3+366</f>
         <v>48304</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="15">
         <v>22.9</v>
@@ -1241,10 +1301,15 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="15">
         <v>0.5</v>
@@ -1268,10 +1333,15 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15">
         <v>23.4</v>
@@ -1295,10 +1365,15 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+    </row>
+    <row r="7" spans="1:35" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="15">
         <v>2.7</v>
@@ -1322,10 +1397,15 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+    </row>
+    <row r="8" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" ref="D8:G8" si="0">SUM(D4:D7)</f>
@@ -1347,24 +1427,50 @@
         <f>SUM(H4:H7)</f>
         <v>58.900000000000006</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="S8" s="16">
+      <c r="I8" s="20">
+        <v>58.4</v>
+      </c>
+      <c r="J8" s="20">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K8" s="20">
+        <v>60.8</v>
+      </c>
+      <c r="L8" s="20">
+        <f>66-L29-L24</f>
+        <v>5.8000000000000043</v>
+      </c>
+      <c r="M8" s="20">
+        <f>71.7-M29-M24</f>
+        <v>6.8000000000000043</v>
+      </c>
+      <c r="N8" s="20">
+        <f>78.5-N29-N24</f>
+        <v>6.7000000000000028</v>
+      </c>
+      <c r="O8" s="20">
+        <f>71.6-O29-O24</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="P8" s="20">
+        <f>88.3-P29-P24</f>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="X8" s="16">
         <v>205.6</v>
       </c>
-      <c r="T8" s="16">
+      <c r="Y8" s="16">
         <v>244</v>
       </c>
-      <c r="U8" s="16">
-        <v>259.39999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="16">
+        <v>287.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -1373,8 +1479,13 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -1383,10 +1494,15 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="14">
         <v>9.6</v>
@@ -1410,19 +1526,24 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
-      <c r="S11" s="14">
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="X11" s="14">
         <v>45.4</v>
       </c>
-      <c r="T11" s="14">
+      <c r="Y11" s="14">
         <v>144.6</v>
       </c>
-      <c r="U11" s="14">
-        <v>195.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="14">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="14">
         <v>1.2</v>
@@ -1446,10 +1567,21 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="Y12" s="14">
+        <v>37.1</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="14">
         <v>2.2000000000000002</v>
@@ -1473,10 +1605,21 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="Y13" s="14">
+        <v>11.7</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -1496,14 +1639,35 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="Y14" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D15" s="16">
         <f>SUM(D11:D14)</f>
@@ -1525,21 +1689,54 @@
         <f>SUM(H11:H14)</f>
         <v>31.299999999999997</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="S15" s="16">
+      <c r="I15" s="20">
+        <v>48.2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>60.2</v>
+      </c>
+      <c r="K15" s="20">
+        <v>67.8</v>
+      </c>
+      <c r="L15" s="20">
+        <f>86.6-L38</f>
+        <v>82.199999999999989</v>
+      </c>
+      <c r="M15" s="20">
+        <f>96.5-M38</f>
+        <v>90.5</v>
+      </c>
+      <c r="N15" s="20">
+        <f>111.4-N38</f>
+        <v>104.10000000000001</v>
+      </c>
+      <c r="O15" s="20">
+        <f>154.8-O38</f>
+        <v>148.60000000000002</v>
+      </c>
+      <c r="P15" s="20">
+        <f>134.8-P38</f>
+        <v>127.00000000000001</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="X15" s="16">
         <v>80.8</v>
       </c>
-      <c r="T15" s="16">
+      <c r="Y15" s="16">
         <v>258.39999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z15" s="16">
+        <v>449.2</v>
+      </c>
+      <c r="AA15" s="16">
+        <f>SUM(L15:O15)</f>
+        <v>425.40000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -1548,53 +1745,84 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.6</v>
+        <v>86</v>
       </c>
       <c r="H17" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="M17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="N17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="P17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="Y17" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="H18" s="21">
-        <v>14.1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7.9</v>
-      </c>
-      <c r="H19" s="21">
-        <v>12.4</v>
-      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O18" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -1602,189 +1830,358 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
-    </row>
-    <row r="20" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="M20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="N20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O20" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="Y20" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I21" s="21">
+        <v>18.8</v>
+      </c>
+      <c r="J21" s="21">
+        <v>19.2</v>
+      </c>
+      <c r="K21" s="21">
+        <v>16</v>
+      </c>
+      <c r="L21" s="21">
+        <v>18.3</v>
+      </c>
+      <c r="M21" s="21">
+        <v>19</v>
+      </c>
+      <c r="N21" s="21">
+        <v>21.8</v>
+      </c>
+      <c r="O21" s="21">
+        <v>21.9</v>
+      </c>
+      <c r="P21" s="21">
+        <v>20.6</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="Y21" s="14">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="H22" s="21">
+        <v>14.1</v>
+      </c>
+      <c r="I22" s="21">
+        <v>13.3</v>
+      </c>
+      <c r="J22" s="21">
+        <v>14.4</v>
+      </c>
+      <c r="K22" s="21">
+        <v>12.1</v>
+      </c>
+      <c r="L22" s="21">
+        <v>13.2</v>
+      </c>
+      <c r="M22" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="N22" s="21">
+        <v>12.3</v>
+      </c>
+      <c r="O22" s="21">
+        <v>12</v>
+      </c>
+      <c r="P22" s="21">
+        <v>15.8</v>
+      </c>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="Y22" s="14">
+        <v>54</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="H23" s="21">
+        <v>12.4</v>
+      </c>
+      <c r="I23" s="21">
+        <v>12.6</v>
+      </c>
+      <c r="J23" s="21">
+        <v>13.1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>13.1</v>
+      </c>
+      <c r="L23" s="21">
+        <v>15.8</v>
+      </c>
+      <c r="M23" s="21">
+        <v>13.3</v>
+      </c>
+      <c r="N23" s="21">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O23" s="21">
+        <v>15.7</v>
+      </c>
+      <c r="P23" s="21">
+        <v>16.3</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="Y23" s="14">
+        <v>51.3</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="14">
+        <v>23.4</v>
+      </c>
+      <c r="H24" s="21">
+        <v>28.6</v>
+      </c>
+      <c r="I24" s="21">
+        <v>27.2</v>
+      </c>
+      <c r="J24" s="21">
+        <v>32</v>
+      </c>
+      <c r="K24" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="L24" s="21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="M24" s="21">
+        <v>35.6</v>
+      </c>
+      <c r="N24" s="21">
+        <v>39.4</v>
+      </c>
+      <c r="O24" s="21">
+        <v>38.9</v>
+      </c>
+      <c r="P24" s="21">
+        <v>45.4</v>
+      </c>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="14">
-        <v>23.4</v>
-      </c>
-      <c r="H20" s="21">
-        <v>28.6</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="D25" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="K25" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L25" s="21">
+        <v>3</v>
+      </c>
+      <c r="M25" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="N25" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="O25" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="P25" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="H21" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="D26" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="H26" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="I26" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J26" s="21">
+        <v>5</v>
+      </c>
+      <c r="K26" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="L26" s="21">
+        <v>4.7</v>
+      </c>
+      <c r="M26" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="N26" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="O26" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P26" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="H22" s="21">
-        <v>5.4</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="D27" s="14">
         <v>26.5</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H27" s="21">
         <v>31.9</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="14">
-        <v>22.9</v>
-      </c>
-      <c r="E25" s="14">
-        <v>21.9</v>
-      </c>
-      <c r="F25" s="14">
-        <v>25.6</v>
-      </c>
-      <c r="G25" s="14">
-        <v>22</v>
-      </c>
-      <c r="H25" s="21">
-        <v>25.1</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="E26" s="14">
-        <v>7.1</v>
-      </c>
-      <c r="F26" s="14">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G26" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="H26" s="21">
-        <v>8.9</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E27" s="14">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F27" s="14">
-        <v>10.3</v>
-      </c>
-      <c r="G27" s="14">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H27" s="21">
-        <v>9.9</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E28" s="14">
-        <v>3.9</v>
-      </c>
-      <c r="F28" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="G28" s="14">
-        <v>4</v>
-      </c>
-      <c r="H28" s="21">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="I27" s="21">
+        <v>37.9</v>
+      </c>
+      <c r="J27" s="21">
+        <v>36.6</v>
+      </c>
+      <c r="K27" s="21">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L27" s="21">
+        <f>39.5-5.3</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="M27" s="21">
+        <f>43.6-5.8</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="N27" s="21">
+        <f>48.7-6.2</f>
+        <v>42.5</v>
+      </c>
+      <c r="O27" s="21">
+        <f>52.3-6.2</f>
+        <v>46.099999999999994</v>
+      </c>
+      <c r="P27" s="21">
+        <f>48.7-7</f>
+        <v>41.7</v>
+      </c>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="Y27" s="14">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>184.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -1792,775 +2189,1367 @@
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="14">
-        <v>6.4</v>
+        <v>22.9</v>
       </c>
       <c r="E29" s="14">
-        <v>5.7</v>
+        <v>21.9</v>
       </c>
       <c r="F29" s="14">
-        <v>6.5</v>
+        <v>25.6</v>
       </c>
       <c r="G29" s="14">
-        <v>5.0999999999999996</v>
+        <v>22</v>
       </c>
       <c r="H29" s="21">
-        <v>5.6</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25.1</v>
+      </c>
+      <c r="I29" s="21">
+        <v>25.6</v>
+      </c>
+      <c r="J29" s="21">
+        <v>28.8</v>
+      </c>
+      <c r="K29" s="21">
+        <v>25.6</v>
+      </c>
+      <c r="L29" s="21">
+        <v>27.9</v>
+      </c>
+      <c r="M29" s="21">
+        <v>29.3</v>
+      </c>
+      <c r="N29" s="21">
+        <v>32.4</v>
+      </c>
+      <c r="O29" s="21">
+        <v>26.1</v>
+      </c>
+      <c r="P29" s="21">
+        <v>34.9</v>
+      </c>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D30" s="14">
-        <v>4.5</v>
+        <v>7.1</v>
       </c>
       <c r="E30" s="14">
-        <v>4.4000000000000004</v>
+        <v>7.1</v>
       </c>
       <c r="F30" s="14">
-        <v>5.0999999999999996</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G30" s="14">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H30" s="21">
-        <v>5.3</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8.9</v>
+      </c>
+      <c r="I30" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="J30" s="21">
+        <v>10.8</v>
+      </c>
+      <c r="K30" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="L30" s="21">
+        <v>11.7</v>
+      </c>
+      <c r="M30" s="21">
+        <v>11</v>
+      </c>
+      <c r="N30" s="21">
+        <v>12.6</v>
+      </c>
+      <c r="O30" s="21">
+        <v>10.3</v>
+      </c>
+      <c r="P30" s="21">
+        <v>14.2</v>
+      </c>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D31" s="14">
-        <v>5.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E31" s="14">
-        <v>5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F31" s="14">
-        <v>5.5</v>
+        <v>10.3</v>
       </c>
       <c r="G31" s="14">
-        <v>4.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H31" s="21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+        <v>9.9</v>
+      </c>
+      <c r="I31" s="21">
+        <v>9.4</v>
+      </c>
+      <c r="J31" s="21">
+        <v>11.1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L31" s="21">
+        <v>10.7</v>
+      </c>
+      <c r="M31" s="21">
+        <v>10.4</v>
+      </c>
+      <c r="N31" s="21">
+        <v>12.2</v>
+      </c>
+      <c r="O31" s="21">
+        <v>9.5</v>
+      </c>
+      <c r="P31" s="21">
+        <v>11.1</v>
+      </c>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32" s="14">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E32" s="14">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F32" s="14">
         <v>4.7</v>
       </c>
       <c r="G32" s="14">
+        <v>4</v>
+      </c>
+      <c r="H32" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I32" s="21">
+        <v>5</v>
+      </c>
+      <c r="J32" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="K32" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="L32" s="21">
+        <v>6.1</v>
+      </c>
+      <c r="M32" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="N32" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="O32" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="P32" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="F33" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H33" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="I33" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="J33" s="21">
+        <v>6</v>
+      </c>
+      <c r="K33" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L33" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="M33" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N33" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="O33" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E34" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F34" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G34" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="H34" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="I34" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="J34" s="21">
+        <v>6.1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="L34" s="21">
+        <v>6.4</v>
+      </c>
+      <c r="M34" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="N34" s="21">
+        <v>7.2</v>
+      </c>
+      <c r="O34" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="P34" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5</v>
+      </c>
+      <c r="F35" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="G35" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="H35" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I35" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J35" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="K35" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="L35" s="21">
+        <v>5</v>
+      </c>
+      <c r="M35" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="N35" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="O35" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="P35" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="E36" s="14">
+        <v>4</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="G36" s="14">
         <v>3.8</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H36" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-    </row>
-    <row r="33" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
+      <c r="I36" s="21">
+        <v>4</v>
+      </c>
+      <c r="J36" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K36" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="L36" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M36" s="21">
+        <v>4</v>
+      </c>
+      <c r="N36" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="O36" s="21">
+        <v>3.4</v>
+      </c>
+      <c r="P36" s="21">
+        <v>4.3</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G37" s="14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H37" s="21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I37" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="J37" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="K37" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="L37" s="21">
+        <v>4</v>
+      </c>
+      <c r="M37" s="21">
+        <v>4</v>
+      </c>
+      <c r="N37" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="O37" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="P37" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="14">
-        <v>5.8</v>
-      </c>
-      <c r="E33" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="F33" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="G33" s="14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H33" s="21">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="D38" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E38" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F38" s="14">
         <v>2.6</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G38" s="14">
         <v>2.6</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H38" s="21">
         <v>2.4</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-    </row>
-    <row r="35" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="E35" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="F35" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="H35" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-    </row>
-    <row r="36" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="14">
-        <v>20</v>
-      </c>
-      <c r="E36" s="14">
-        <v>19.8</v>
-      </c>
-      <c r="F36" s="14">
-        <v>24.2</v>
-      </c>
-      <c r="G36" s="14">
-        <v>18.8</v>
-      </c>
-      <c r="H36" s="21">
-        <v>21</v>
-      </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-    </row>
-    <row r="37" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="E37" s="14">
-        <v>4</v>
-      </c>
-      <c r="F37" s="14">
-        <v>12.3</v>
-      </c>
-      <c r="G37" s="14">
-        <v>-2.9</v>
-      </c>
-      <c r="H37" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-    </row>
-    <row r="38" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="14">
-        <v>129.1</v>
-      </c>
-      <c r="E38" s="14">
-        <v>126.5</v>
-      </c>
-      <c r="F38" s="14">
-        <v>138.1</v>
-      </c>
-      <c r="G38" s="14">
-        <v>95.8</v>
-      </c>
-      <c r="H38" s="21">
-        <v>109</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-    </row>
-    <row r="39" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="J38" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="K38" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="L38" s="21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M38" s="21">
+        <v>6</v>
+      </c>
+      <c r="N38" s="21">
+        <v>7.3</v>
+      </c>
+      <c r="O38" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="P38" s="21">
+        <v>7.8</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+    </row>
+    <row r="39" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="14">
-        <v>15.4</v>
-      </c>
-      <c r="E39" s="14">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F39" s="14">
-        <v>15.9</v>
-      </c>
-      <c r="G39" s="14">
-        <v>15</v>
-      </c>
-      <c r="H39" s="21">
-        <v>15.3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="L39" s="21">
+        <v>2.1</v>
+      </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
-    </row>
-    <row r="40" spans="2:21" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-    </row>
-    <row r="41" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="24" t="s">
+      <c r="P39" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+    </row>
+    <row r="40" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="G40" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="I40" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="J40" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="K40" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="M40" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="N40" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="O40" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+    </row>
+    <row r="41" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14">
+        <v>20</v>
+      </c>
+      <c r="E41" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="F41" s="14">
+        <v>24.2</v>
+      </c>
+      <c r="G41" s="14">
+        <v>18.8</v>
+      </c>
+      <c r="H41" s="21">
+        <v>21</v>
+      </c>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+    </row>
+    <row r="42" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E42" s="14">
+        <v>4</v>
+      </c>
+      <c r="F42" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="G42" s="14">
+        <v>-2.9</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="J42" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="K42" s="21">
+        <v>-2.7</v>
+      </c>
+      <c r="L42" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="M42" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="N42" s="21">
+        <v>20</v>
+      </c>
+      <c r="O42" s="21">
+        <v>-0.5</v>
+      </c>
+      <c r="P42" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+    </row>
+    <row r="43" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="14">
+        <v>129.1</v>
+      </c>
+      <c r="E43" s="14">
+        <v>126.5</v>
+      </c>
+      <c r="F43" s="14">
+        <v>138.1</v>
+      </c>
+      <c r="G43" s="14">
+        <v>95.8</v>
+      </c>
+      <c r="H43" s="21">
+        <v>109</v>
+      </c>
+      <c r="I43" s="21">
+        <v>116</v>
+      </c>
+      <c r="J43" s="21">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="K43" s="21">
+        <v>101.5</v>
+      </c>
+      <c r="L43" s="21">
+        <f>119-SUM(L29:L42)</f>
+        <v>28.900000000000006</v>
+      </c>
+      <c r="M43" s="21">
+        <f>127.8-SUM(M29:M42)</f>
+        <v>30.800000000000011</v>
+      </c>
+      <c r="N43" s="21">
+        <f>165.5-SUM(N29:N42)</f>
+        <v>44.300000000000011</v>
+      </c>
+      <c r="O43" s="21">
+        <f>106.6-SUM(O29:O42)</f>
+        <v>26.09999999999998</v>
+      </c>
+      <c r="P43" s="21">
+        <f>117.7-SUM(P29:P42)</f>
+        <v>17.000000000000014</v>
+      </c>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="Y43" s="14">
+        <v>457.9</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>518.9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="E44" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F44" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="G44" s="14">
         <v>15</v>
       </c>
-      <c r="D41" s="25">
+      <c r="H44" s="21">
+        <v>15.3</v>
+      </c>
+      <c r="I44" s="21">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J44" s="21">
+        <v>21.2</v>
+      </c>
+      <c r="K44" s="21">
+        <v>15.6</v>
+      </c>
+      <c r="L44" s="21">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="M44" s="21">
+        <v>20.3</v>
+      </c>
+      <c r="N44" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="O44" s="21">
+        <v>16</v>
+      </c>
+      <c r="P44" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="Y44" s="14">
+        <v>70.3</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19">
+        <f>350.8-348.4</f>
+        <v>2.4000000000000341</v>
+      </c>
+      <c r="M45" s="19">
+        <v>-0.5</v>
+      </c>
+      <c r="N45" s="19">
+        <f>446.9-444.7</f>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="O45" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="P45" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+    </row>
+    <row r="46" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="25">
         <v>264.06900000000002</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E46" s="25">
         <v>265.89999999999998</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F46" s="25">
         <v>281</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G46" s="25">
         <v>233.9</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H46" s="26">
         <v>280.31700000000001</v>
       </c>
-      <c r="I41" s="26">
-        <f>607.797-H41</f>
+      <c r="I46" s="26">
+        <f>607.797-H46</f>
         <v>327.48</v>
       </c>
-      <c r="J41" s="26">
-        <v>300</v>
-      </c>
-      <c r="K41" s="26">
-        <v>300</v>
-      </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25">
+      <c r="J46" s="26">
+        <v>340.5</v>
+      </c>
+      <c r="K46" s="26">
+        <v>330.2</v>
+      </c>
+      <c r="L46" s="26">
+        <f>SUM(L4:L45)</f>
+        <v>350.8</v>
+      </c>
+      <c r="M46" s="26">
+        <f>SUM(M4:M45)</f>
+        <v>375.50000000000011</v>
+      </c>
+      <c r="N46" s="26">
+        <f>SUM(N4:N45)</f>
+        <v>446.90000000000009</v>
+      </c>
+      <c r="O46" s="26">
+        <f>SUM(O4:O45)</f>
+        <v>428.4</v>
+      </c>
+      <c r="P46" s="26">
+        <f>SUM(P4:P45)</f>
+        <v>436.2000000000001</v>
+      </c>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25">
         <v>1044.8920000000001</v>
       </c>
-      <c r="U41" s="25">
+      <c r="Z46" s="25">
         <v>1278.4780000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
+    <row r="47" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D47" s="14">
         <v>85.227999999999994</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E47" s="14">
         <v>87.4</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F47" s="14">
         <v>90.6</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G47" s="14">
         <v>84.8</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H47" s="21">
         <v>74.798000000000002</v>
       </c>
-      <c r="I42" s="21">
-        <f>159.567-H42</f>
+      <c r="I47" s="21">
+        <f>159.567-H47</f>
         <v>84.769000000000005</v>
-      </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="T42" s="14">
-        <v>353.4</v>
-      </c>
-      <c r="U42" s="14">
-        <v>363.52499999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="14">
-        <f t="shared" ref="D43:G43" si="1">+D41-D42</f>
-        <v>178.84100000000001</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="1"/>
-        <v>178.49999999999997</v>
-      </c>
-      <c r="F43" s="14">
-        <f t="shared" si="1"/>
-        <v>190.4</v>
-      </c>
-      <c r="G43" s="14">
-        <f t="shared" si="1"/>
-        <v>149.10000000000002</v>
-      </c>
-      <c r="H43" s="21">
-        <f>+H41-H42</f>
-        <v>205.51900000000001</v>
-      </c>
-      <c r="I43" s="21">
-        <f t="shared" ref="I43:J43" si="2">+I41-I42</f>
-        <v>242.71100000000001</v>
-      </c>
-      <c r="J43" s="21">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="T43" s="14">
-        <f>+T41-T42</f>
-        <v>691.49200000000008</v>
-      </c>
-      <c r="U43" s="14">
-        <f>+U41-U42</f>
-        <v>914.95300000000009</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="14">
-        <v>81.257999999999996</v>
-      </c>
-      <c r="E44" s="14">
-        <v>84.5</v>
-      </c>
-      <c r="F44" s="14">
-        <v>90</v>
-      </c>
-      <c r="G44" s="14">
-        <v>96.4</v>
-      </c>
-      <c r="H44" s="21">
-        <v>96.373000000000005</v>
-      </c>
-      <c r="I44" s="21">
-        <f>209.859-H44</f>
-        <v>113.486</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="T44" s="14">
-        <v>362.45600000000002</v>
-      </c>
-      <c r="U44" s="14">
-        <v>471.221</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="14">
-        <v>54.037999999999997</v>
-      </c>
-      <c r="E45" s="14">
-        <v>55</v>
-      </c>
-      <c r="F45" s="14">
-        <v>60.1</v>
-      </c>
-      <c r="G45" s="14">
-        <v>85</v>
-      </c>
-      <c r="H45" s="21">
-        <v>74.930999999999997</v>
-      </c>
-      <c r="I45" s="21">
-        <f>150.654-H45</f>
-        <v>75.722999999999999</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="T45" s="14">
-        <v>260.32600000000002</v>
-      </c>
-      <c r="U45" s="14">
-        <v>341.57</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="14">
-        <f t="shared" ref="D46:G46" si="3">+D44+D45</f>
-        <v>135.29599999999999</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="3"/>
-        <v>139.5</v>
-      </c>
-      <c r="F46" s="14">
-        <f t="shared" si="3"/>
-        <v>150.1</v>
-      </c>
-      <c r="G46" s="14">
-        <f t="shared" si="3"/>
-        <v>181.4</v>
-      </c>
-      <c r="H46" s="21">
-        <f>+H44+H45</f>
-        <v>171.304</v>
-      </c>
-      <c r="I46" s="21">
-        <f>+I44+I45</f>
-        <v>189.209</v>
-      </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="T46" s="14">
-        <f>+T44+T45</f>
-        <v>622.78200000000004</v>
-      </c>
-      <c r="U46" s="14">
-        <f>+U44+U45</f>
-        <v>812.79099999999994</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" ref="D47:G47" si="4">+D43-D46</f>
-        <v>43.545000000000016</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="4"/>
-        <v>38.999999999999972</v>
-      </c>
-      <c r="F47" s="14">
-        <f t="shared" si="4"/>
-        <v>40.300000000000011</v>
-      </c>
-      <c r="G47" s="14">
-        <f t="shared" si="4"/>
-        <v>-32.299999999999983</v>
-      </c>
-      <c r="H47" s="21">
-        <f>+H43-H46</f>
-        <v>34.215000000000003</v>
-      </c>
-      <c r="I47" s="21">
-        <f>+I43-I46</f>
-        <v>53.50200000000001</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
+      <c r="L47" s="21">
+        <v>93.6</v>
+      </c>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
-      <c r="T47" s="14">
-        <f>+T43-T46</f>
-        <v>68.710000000000036</v>
-      </c>
-      <c r="U47" s="14">
-        <f>+U43-U46</f>
-        <v>102.16200000000015</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P47" s="21">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="Y47" s="14">
+        <v>353.4</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>363.52499999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D48" s="14">
-        <f>2.225+2.055-0.759-0.002</f>
-        <v>3.5190000000000006</v>
+        <f t="shared" ref="D48:G48" si="1">+D46-D47</f>
+        <v>178.84100000000001</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="1"/>
+        <v>178.49999999999997</v>
+      </c>
+      <c r="F48" s="14">
+        <f t="shared" si="1"/>
+        <v>190.4</v>
+      </c>
+      <c r="G48" s="14">
+        <f t="shared" si="1"/>
+        <v>149.10000000000002</v>
       </c>
       <c r="H48" s="21">
-        <f>0.168+1.562-6.507-0.021</f>
-        <v>-4.7979999999999992</v>
-      </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+        <f>+H46-H47</f>
+        <v>205.51900000000001</v>
+      </c>
+      <c r="I48" s="21">
+        <f t="shared" ref="I48:J48" si="2">+I46-I47</f>
+        <v>242.71100000000001</v>
+      </c>
+      <c r="J48" s="21">
+        <f t="shared" si="2"/>
+        <v>340.5</v>
+      </c>
       <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
+      <c r="L48" s="21">
+        <f>+L46-L47</f>
+        <v>257.20000000000005</v>
+      </c>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
-      <c r="T48" s="14">
-        <f>4.321-0.003+0.5</f>
-        <v>4.8179999999999996</v>
-      </c>
-      <c r="U48" s="14">
-        <f>19.101-0.68+6.3</f>
-        <v>24.721</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P48" s="21">
+        <f>+P46-P47</f>
+        <v>341.2000000000001</v>
+      </c>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="Y48" s="14">
+        <f>+Y46-Y47</f>
+        <v>691.49200000000008</v>
+      </c>
+      <c r="Z48" s="14">
+        <f>+Z46-Z47</f>
+        <v>914.95300000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D49" s="14">
-        <f>+D47+D48</f>
-        <v>47.064000000000014</v>
+        <v>81.257999999999996</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" ref="E49:H49" si="5">+E47+E48</f>
-        <v>38.999999999999972</v>
+        <v>84.5</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" si="5"/>
-        <v>40.300000000000011</v>
+        <v>90</v>
       </c>
       <c r="G49" s="14">
-        <f t="shared" si="5"/>
-        <v>-32.299999999999983</v>
+        <v>96.4</v>
       </c>
       <c r="H49" s="21">
-        <f t="shared" si="5"/>
-        <v>29.417000000000005</v>
-      </c>
-      <c r="I49" s="21"/>
+        <v>96.373000000000005</v>
+      </c>
+      <c r="I49" s="21">
+        <f>209.859-H49</f>
+        <v>113.486</v>
+      </c>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
+      <c r="L49" s="21">
+        <v>135.6</v>
+      </c>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
-      <c r="T49" s="14">
-        <f>+T47+T48</f>
-        <v>73.528000000000034</v>
-      </c>
-      <c r="U49" s="14">
-        <f>+U47+U48</f>
-        <v>126.88300000000015</v>
-      </c>
-    </row>
-    <row r="50" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P49" s="21">
+        <v>167.6</v>
+      </c>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="Y49" s="14">
+        <v>362.45600000000002</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>471.221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D50" s="14">
-        <v>11.842000000000001</v>
+        <v>54.037999999999997</v>
+      </c>
+      <c r="E50" s="14">
+        <v>55</v>
+      </c>
+      <c r="F50" s="14">
+        <v>60.1</v>
+      </c>
+      <c r="G50" s="14">
+        <v>85</v>
       </c>
       <c r="H50" s="21">
-        <v>10.563000000000001</v>
-      </c>
-      <c r="I50" s="21"/>
+        <v>74.930999999999997</v>
+      </c>
+      <c r="I50" s="21">
+        <f>150.654-H50</f>
+        <v>75.722999999999999</v>
+      </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="L50" s="21">
+        <v>77.2</v>
+      </c>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
-      <c r="T50" s="15">
-        <v>6.5430000000000001</v>
-      </c>
-      <c r="U50" s="14">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P50" s="21">
+        <v>56.8</v>
+      </c>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="Y50" s="14">
+        <v>260.32600000000002</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>341.57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D51" s="14">
-        <f>+D49-D50</f>
-        <v>35.222000000000016</v>
+        <f t="shared" ref="D51:G51" si="3">+D49+D50</f>
+        <v>135.29599999999999</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" ref="E51:H51" si="6">+E49-E50</f>
-        <v>38.999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>139.5</v>
       </c>
       <c r="F51" s="14">
-        <f t="shared" si="6"/>
-        <v>40.300000000000011</v>
+        <f t="shared" si="3"/>
+        <v>150.1</v>
       </c>
       <c r="G51" s="14">
-        <f t="shared" si="6"/>
-        <v>-32.299999999999983</v>
+        <f t="shared" si="3"/>
+        <v>181.4</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="6"/>
-        <v>18.854000000000006</v>
-      </c>
-      <c r="I51" s="21"/>
+        <f>+H49+H50</f>
+        <v>171.304</v>
+      </c>
+      <c r="I51" s="21">
+        <f>+I49+I50</f>
+        <v>189.209</v>
+      </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="L51" s="21">
+        <f>+L49+L50</f>
+        <v>212.8</v>
+      </c>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
-      <c r="T51" s="14">
-        <f>+T49-T50</f>
+      <c r="P51" s="21">
+        <f>+P50+P49</f>
+        <v>224.39999999999998</v>
+      </c>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="Y51" s="14">
+        <f>+Y49+Y50</f>
+        <v>622.78200000000004</v>
+      </c>
+      <c r="Z51" s="14">
+        <f>+Z49+Z50</f>
+        <v>812.79099999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" ref="D52:G52" si="4">+D48-D51</f>
+        <v>43.545000000000016</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="4"/>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="4"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G52" s="14">
+        <f t="shared" si="4"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H52" s="21">
+        <f>+H48-H51</f>
+        <v>34.215000000000003</v>
+      </c>
+      <c r="I52" s="21">
+        <f>+I48-I51</f>
+        <v>53.50200000000001</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21">
+        <f>+L48-L51</f>
+        <v>44.400000000000034</v>
+      </c>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21">
+        <f>+P48-P51</f>
+        <v>116.80000000000013</v>
+      </c>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="Y52" s="14">
+        <f>+Y48-Y51</f>
+        <v>68.710000000000036</v>
+      </c>
+      <c r="Z52" s="14">
+        <f>+Z48-Z51</f>
+        <v>102.16200000000015</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="14">
+        <f>2.225+2.055-0.759-0.002</f>
+        <v>3.5190000000000006</v>
+      </c>
+      <c r="H53" s="21">
+        <f>0.168+1.562-6.507-0.021</f>
+        <v>-4.7979999999999992</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21">
+        <v>8.1</v>
+      </c>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21">
+        <v>17.2</v>
+      </c>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="Y53" s="14">
+        <f>4.321-0.003+0.5</f>
+        <v>4.8179999999999996</v>
+      </c>
+      <c r="Z53" s="14">
+        <f>19.101-0.68+6.3</f>
+        <v>24.721</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="14">
+        <f>+D52+D53</f>
+        <v>47.064000000000014</v>
+      </c>
+      <c r="E54" s="14">
+        <f t="shared" ref="E54:H54" si="5">+E52+E53</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="5"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G54" s="14">
+        <f t="shared" si="5"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H54" s="21">
+        <f t="shared" si="5"/>
+        <v>29.417000000000005</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21">
+        <f>+L52+L53</f>
+        <v>52.500000000000036</v>
+      </c>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21">
+        <f>+P52+P53</f>
+        <v>134.00000000000011</v>
+      </c>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="Y54" s="14">
+        <f>+Y52+Y53</f>
+        <v>73.528000000000034</v>
+      </c>
+      <c r="Z54" s="14">
+        <f>+Z52+Z53</f>
+        <v>126.88300000000015</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="14">
+        <v>11.842000000000001</v>
+      </c>
+      <c r="H55" s="21">
+        <v>10.563000000000001</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21">
+        <v>24.8</v>
+      </c>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="Y55" s="15">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="14">
+        <f>+D54-D55</f>
+        <v>35.222000000000016</v>
+      </c>
+      <c r="E56" s="14">
+        <f t="shared" ref="E56:H56" si="6">+E54-E55</f>
+        <v>38.999999999999972</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="6"/>
+        <v>40.300000000000011</v>
+      </c>
+      <c r="G56" s="14">
+        <f t="shared" si="6"/>
+        <v>-32.299999999999983</v>
+      </c>
+      <c r="H56" s="21">
+        <f t="shared" si="6"/>
+        <v>18.854000000000006</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21">
+        <f>+L54-L55</f>
+        <v>47.600000000000037</v>
+      </c>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21">
+        <f>+P54-P55</f>
+        <v>109.20000000000012</v>
+      </c>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="Y56" s="14">
+        <f>+Y54-Y55</f>
         <v>66.985000000000028</v>
       </c>
-      <c r="U51" s="14">
-        <f>+U49-U50</f>
+      <c r="Z56" s="14">
+        <f>+Z54-Z55</f>
         <v>109.18300000000015</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B55" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="17">
-        <f>+D43/D41</f>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B60" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="17">
+        <f>+D48/D46</f>
         <v>0.67725102151331662</v>
       </c>
-      <c r="E55" s="17">
-        <f>+E43/E41</f>
+      <c r="E60" s="17">
+        <f>+E48/E46</f>
         <v>0.67130500188040609</v>
       </c>
-      <c r="F55" s="17">
-        <f>+F43/F41</f>
+      <c r="F60" s="17">
+        <f>+F48/F46</f>
         <v>0.67758007117437724</v>
       </c>
-      <c r="G55" s="17">
-        <f>+G43/G41</f>
+      <c r="G60" s="17">
+        <f>+G48/G46</f>
         <v>0.63745190252244555</v>
       </c>
-      <c r="H55" s="22">
-        <f>+H43/H41</f>
+      <c r="H60" s="22">
+        <f>+H48/H46</f>
         <v>0.73316637949178964</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" s="23">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="23">
         <v>16739</v>
       </c>
     </row>
